--- a/output/New Microsoft Excel Worksheet.xlsx
+++ b/output/New Microsoft Excel Worksheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeStuff\Stats\colab_linear_regression\linear_regression\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3B342C-12AF-4BA6-87E9-D44FC41AB0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125662B-343E-405F-9D5C-C066BBBA4CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>_Grand Total</t>
   </si>
   <si>
     <t>__Atendimentos na APS (exceto saúde mental)</t>
+  </si>
+  <si>
+    <t>Intercept__Value</t>
   </si>
 </sst>
 </file>
@@ -376,7 +380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -545,4 +549,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC7C5A8-C7E5-40E5-AD7A-3B7B24E19FEC}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>104547.6217508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6576.7811668000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>152.32377679999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>279.33174400000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>103.6427573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>210.90149510000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>52.530996500000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>123.38262760000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1318.5004323000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3566.3341939000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>500.05394790000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>203.56963719999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>